--- a/Reporting/Silver_tables/oc_rates_2024-09-03.xlsx
+++ b/Reporting/Silver_tables/oc_rates_2024-09-03.xlsx
@@ -516,19 +516,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9618</t>
+          <t>1.8097</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.9618</t>
+          <t>1.8097</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>147133846.433838</v>
+        <v>135730463.573838</v>
       </c>
       <c r="J2" t="n">
-        <v>147133846.433838</v>
+        <v>135730463.573838</v>
       </c>
       <c r="K2" t="n">
         <v>75000000</v>
@@ -606,19 +606,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2547</t>
+          <t>1.2340</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.2499</t>
+          <t>1.2289</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>91237056.37880877</v>
+        <v>89731563.92356965</v>
       </c>
       <c r="J4" t="n">
-        <v>90889338.7403156</v>
+        <v>89359381.34533542</v>
       </c>
       <c r="K4" t="n">
         <v>72716269.18655951</v>
@@ -655,19 +655,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1805</t>
+          <t>1.1700</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.1758</t>
+          <t>1.1654</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>208196070.5288627</v>
+        <v>206350234.2206422</v>
       </c>
       <c r="J5" t="n">
-        <v>207370884.530672</v>
+        <v>205531894.1828487</v>
       </c>
       <c r="K5" t="n">
         <v>176363351.7867463</v>
@@ -704,19 +704,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1653</t>
+          <t>1.1601</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.1616</t>
+          <t>1.1564</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>285426769.1731964</v>
+        <v>284156656.6173738</v>
       </c>
       <c r="J6" t="n">
-        <v>284521316.5564403</v>
+        <v>283246652.4109622</v>
       </c>
       <c r="K6" t="n">
         <v>244935044.357254</v>
@@ -753,19 +753,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2726</t>
+          <t>1.2635</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.2646</t>
+          <t>1.2562</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>179068965.6122611</v>
+        <v>177786220.7243296</v>
       </c>
       <c r="J7" t="n">
-        <v>177939163.7600445</v>
+        <v>176752020.5686558</v>
       </c>
       <c r="K7" t="n">
         <v>140705609.4522975</v>
@@ -802,19 +802,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.1007</t>
+          <t>1.0439</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.1012</t>
+          <t>1.0435</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>74147627.78823549</v>
+        <v>70321678.21263798</v>
       </c>
       <c r="J8" t="n">
-        <v>74182683.95014416</v>
+        <v>70291635.45115075</v>
       </c>
       <c r="K8" t="n">
         <v>67364365.1903469</v>
@@ -851,19 +851,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>1.1586</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.1713</t>
+          <t>1.1573</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>160214640.6247202</v>
+        <v>158301637.460605</v>
       </c>
       <c r="J9" t="n">
-        <v>160042476.7358088</v>
+        <v>158123175.193365</v>
       </c>
       <c r="K9" t="n">
         <v>136635585.8383964</v>
@@ -900,19 +900,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0575</t>
+          <t>1.0556</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.0567</t>
+          <t>1.0547</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>110887900.7148623</v>
+        <v>110682967.7627729</v>
       </c>
       <c r="J10" t="n">
-        <v>110799705.1876644</v>
+        <v>110594947.3886171</v>
       </c>
       <c r="K10" t="n">
         <v>104854360</v>
@@ -949,19 +949,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2663</t>
+          <t>1.2656</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.2659</t>
+          <t>1.2652</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9426118.760812076</v>
+        <v>9421120.622901479</v>
       </c>
       <c r="J11" t="n">
-        <v>9423029.203861063</v>
+        <v>9417855.912908392</v>
       </c>
       <c r="K11" t="n">
         <v>7444000</v>
@@ -998,19 +998,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2463</t>
+          <t>1.2411</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.2422</t>
+          <t>1.2363</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>86111712.3375708</v>
+        <v>85754617.92771469</v>
       </c>
       <c r="J12" t="n">
-        <v>85826653.07760485</v>
+        <v>85417059.29283592</v>
       </c>
       <c r="K12" t="n">
         <v>69093288.62278058</v>
@@ -1047,19 +1047,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.1740</t>
+          <t>1.1697</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.1656</t>
+          <t>1.1613</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>36105632.12327304</v>
+        <v>35972184.55459218</v>
       </c>
       <c r="J13" t="n">
-        <v>35847301.23620012</v>
+        <v>35714196.27497976</v>
       </c>
       <c r="K13" t="n">
         <v>30753777.6585346</v>
@@ -1096,19 +1096,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.1855</t>
+          <t>1.1754</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.1801</t>
+          <t>1.1701</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>150474761.0821679</v>
+        <v>149201857.3387711</v>
       </c>
       <c r="J14" t="n">
-        <v>149796574.7446727</v>
+        <v>148524597.2108465</v>
       </c>
       <c r="K14" t="n">
         <v>126933565.3268572</v>
@@ -1145,19 +1145,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.3114</t>
+          <t>1.3105</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.3058</t>
+          <t>1.3037</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>296069995.0355443</v>
+        <v>295862452.8146583</v>
       </c>
       <c r="J15" t="n">
-        <v>294809472.8872675</v>
+        <v>294328627.3569492</v>
       </c>
       <c r="K15" t="n">
         <v>225762704.0567949</v>
@@ -1194,19 +1194,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.1390</t>
+          <t>1.0105</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.1251</t>
+          <t>1.0100</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>27764622.28264533</v>
+        <v>24632113.957344</v>
       </c>
       <c r="J16" t="n">
-        <v>27426614.00397149</v>
+        <v>24619980.91000489</v>
       </c>
       <c r="K16" t="n">
         <v>24376103.93107309</v>
@@ -1243,19 +1243,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.1388</t>
+          <t>1.1360</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.1380</t>
+          <t>1.1350</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>13676637.24244319</v>
+        <v>13642607.49366996</v>
       </c>
       <c r="J17" t="n">
-        <v>13666750.58956958</v>
+        <v>13630891.14958385</v>
       </c>
       <c r="K17" t="n">
         <v>12009519.17762129</v>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.2552</t>
+          <t>1.2344</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.2504</t>
+          <t>1.2293</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12513748.58833857</v>
+        <v>12306519.00961441</v>
       </c>
       <c r="J18" t="n">
-        <v>12466064.95012061</v>
+        <v>12255716.05306134</v>
       </c>
       <c r="K18" t="n">
         <v>9969282.198277999</v>
@@ -1341,19 +1341,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.1773</t>
+          <t>1.1725</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.1728</t>
+          <t>1.1678</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>28667436.49355174</v>
+        <v>28548501.40793926</v>
       </c>
       <c r="J19" t="n">
-        <v>28556326.8574932</v>
+        <v>28435830.7924359</v>
       </c>
       <c r="K19" t="n">
         <v>24349212.12443924</v>
@@ -1390,19 +1390,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.1669</t>
+          <t>1.1588</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.1631</t>
+          <t>1.1550</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>39167667.73131143</v>
+        <v>38895156.68373565</v>
       </c>
       <c r="J20" t="n">
-        <v>39039956.05053391</v>
+        <v>38769942.09597029</v>
       </c>
       <c r="K20" t="n">
         <v>33565785.49810506</v>
@@ -1439,19 +1439,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.2766</t>
+          <t>1.2693</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.2685</t>
+          <t>1.2617</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>23725321.06184613</v>
+        <v>23589906.67456509</v>
       </c>
       <c r="J21" t="n">
-        <v>23574821.19579222</v>
+        <v>23449882.42841726</v>
       </c>
       <c r="K21" t="n">
         <v>18585437.55981226</v>
@@ -1488,19 +1488,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.1377</t>
+          <t>1.0418</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.1379</t>
+          <t>1.0414</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9957617.900657898</v>
+        <v>9118733.556279313</v>
       </c>
       <c r="J22" t="n">
-        <v>9959473.5922758</v>
+        <v>9115127.851676209</v>
       </c>
       <c r="K22" t="n">
         <v>8752541.877823157</v>
@@ -1537,19 +1537,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.1753</t>
+          <t>1.1561</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.1741</t>
+          <t>1.1548</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>22042054.86219482</v>
+        <v>21682270.24636449</v>
       </c>
       <c r="J23" t="n">
-        <v>22020238.35280246</v>
+        <v>21657740.46031498</v>
       </c>
       <c r="K23" t="n">
         <v>18755015.76020164</v>
@@ -1586,19 +1586,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.2558</t>
+          <t>1.2347</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.2510</t>
+          <t>1.2297</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>126153808.2193614</v>
+        <v>124039322.0277621</v>
       </c>
       <c r="J24" t="n">
-        <v>125674439.3513028</v>
+        <v>123528727.4693395</v>
       </c>
       <c r="K24" t="n">
         <v>100457811.9423819</v>
@@ -1635,19 +1635,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.1783</t>
+          <t>1.1709</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.1736</t>
+          <t>1.1663</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>78691469.71949807</v>
+        <v>78202390.44437492</v>
       </c>
       <c r="J25" t="n">
-        <v>78378821.47315286</v>
+        <v>77891937.96939003</v>
       </c>
       <c r="K25" t="n">
         <v>66786126.82895081</v>
@@ -1684,19 +1684,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.1654</t>
+          <t>1.1596</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.1619</t>
+          <t>1.1562</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>117205793.8763461</v>
+        <v>116632132.73328</v>
       </c>
       <c r="J26" t="n">
-        <v>116858743.9722897</v>
+        <v>116281471.8275617</v>
       </c>
       <c r="K26" t="n">
         <v>100575483.5565458</v>
@@ -1733,19 +1733,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.2854</t>
+          <t>1.2775</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.2777</t>
+          <t>1.2699</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>535539198.2501068</v>
+        <v>532258369.7451056</v>
       </c>
       <c r="J27" t="n">
-        <v>532329372.5385452</v>
+        <v>529089966.7165284</v>
       </c>
       <c r="K27" t="n">
         <v>416645193.1560305</v>
@@ -1782,19 +1782,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.0969</t>
+          <t>1.0449</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.0966</t>
+          <t>1.0445</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>39169204.19930883</v>
+        <v>37314300.02247526</v>
       </c>
       <c r="J28" t="n">
-        <v>39158839.0995917</v>
+        <v>37297354.51388979</v>
       </c>
       <c r="K28" t="n">
         <v>35709658.30281963</v>
@@ -1831,19 +1831,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.1718</t>
+          <t>1.1534</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.1705</t>
+          <t>1.1521</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>66789765.10532022</v>
+        <v>65740575.37132888</v>
       </c>
       <c r="J29" t="n">
-        <v>66719248.2944265</v>
+        <v>65668177.99339849</v>
       </c>
       <c r="K29" t="n">
         <v>56999406.20611515</v>
@@ -1929,19 +1929,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.2403</t>
+          <t>0.9611</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.2312</t>
+          <t>0.9512</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9062966.09254002</v>
+        <v>7022980.710714877</v>
       </c>
       <c r="J31" t="n">
-        <v>8996385.565411933</v>
+        <v>6950250.645195046</v>
       </c>
       <c r="K31" t="n">
         <v>7306996.80538732</v>
@@ -1978,19 +1978,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.4308</t>
+          <t>1.4102</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.4217</t>
+          <t>1.4010</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>93224257.72854906</v>
+        <v>91881407.94889514</v>
       </c>
       <c r="J32" t="n">
-        <v>92630608.47020881</v>
+        <v>91285902.17016855</v>
       </c>
       <c r="K32" t="n">
         <v>65155365.10217161</v>
@@ -2028,10 +2028,10 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>1567606.842424751</v>
+        <v>-1534677.007496194</v>
       </c>
       <c r="J33" t="n">
-        <v>1559562.86604667</v>
+        <v>-1534677.007496194</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2068,19 +2068,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.2532</t>
+          <t>1.2480</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.2489</t>
+          <t>1.2431</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>42651719.4314547</v>
+        <v>42473497.18906612</v>
       </c>
       <c r="J34" t="n">
-        <v>42503560.08843529</v>
+        <v>42307618.79745876</v>
       </c>
       <c r="K34" t="n">
         <v>34033736.7</v>
@@ -2117,19 +2117,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>1.1703</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.1643</t>
+          <t>1.1620</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>10429810.20043817</v>
+        <v>10409391.44330283</v>
       </c>
       <c r="J35" t="n">
-        <v>10356478.79415772</v>
+        <v>10335710.30838956</v>
       </c>
       <c r="K35" t="n">
         <v>8894855.321130756</v>
@@ -2166,19 +2166,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.1873</t>
+          <t>1.1773</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.1818</t>
+          <t>1.1718</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>39732587.38681433</v>
+        <v>39399532.3133236</v>
       </c>
       <c r="J36" t="n">
-        <v>39548342.57018416</v>
+        <v>39215232.42113651</v>
       </c>
       <c r="K36" t="n">
         <v>33465864.23447625</v>
@@ -2215,19 +2215,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.4454</t>
+          <t>1.4492</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.4381</t>
+          <t>1.4393</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>127748753.4284566</v>
+        <v>128084147.3154249</v>
       </c>
       <c r="J37" t="n">
-        <v>127103625.2840485</v>
+        <v>127206404.7383431</v>
       </c>
       <c r="K37" t="n">
         <v>88383211.66435811</v>
@@ -2264,19 +2264,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.3253</t>
+          <t>1.3268</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.3213</t>
+          <t>1.3202</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>99299423.01442599</v>
+        <v>99407518.37807822</v>
       </c>
       <c r="J38" t="n">
-        <v>98997454.28760131</v>
+        <v>98913695.17575797</v>
       </c>
       <c r="K38" t="n">
         <v>74923198.19266041</v>
@@ -2313,19 +2313,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.6788</t>
+          <t>0.6450</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.5294</t>
+          <t>0.6447</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4967580.39376969</v>
+        <v>1908698.96263406</v>
       </c>
       <c r="J39" t="n">
-        <v>4525541.08550534</v>
+        <v>1907561.531603559</v>
       </c>
       <c r="K39" t="n">
         <v>2959041.456915566</v>
@@ -2362,19 +2362,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.1603</t>
+          <t>1.1550</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.1594</t>
+          <t>1.1537</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1389058.442345681</v>
+        <v>1382626.735433964</v>
       </c>
       <c r="J40" t="n">
-        <v>1387942.285770298</v>
+        <v>1381159.662951842</v>
       </c>
       <c r="K40" t="n">
         <v>1197125.217665549</v>
@@ -2411,19 +2411,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.3811</t>
+          <t>1.3779</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.3758</t>
+          <t>1.3725</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>40551033.82221331</v>
+        <v>40459047.02374513</v>
       </c>
       <c r="J41" t="n">
-        <v>40395492.1248007</v>
+        <v>40300269.59301118</v>
       </c>
       <c r="K41" t="n">
         <v>29361868.35</v>
@@ -2460,19 +2460,19 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.3546</t>
+          <t>1.2783</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.3443</t>
+          <t>1.2682</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8466827.344678124</v>
+        <v>7990051.749920991</v>
       </c>
       <c r="J42" t="n">
-        <v>8402637.026169335</v>
+        <v>7927040.424409286</v>
       </c>
       <c r="K42" t="n">
         <v>6250494.280198267</v>
@@ -2509,19 +2509,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.3638</t>
+          <t>1.3590</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.3595</t>
+          <t>1.3546</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>62053410.24994349</v>
+        <v>61834649.03781842</v>
       </c>
       <c r="J43" t="n">
-        <v>61855597.18349226</v>
+        <v>61633635.26140038</v>
       </c>
       <c r="K43" t="n">
         <v>45498805.22137435</v>
@@ -2558,19 +2558,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.4815</t>
+          <t>1.4754</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.4716</t>
+          <t>1.4654</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>375916056.9487526</v>
+        <v>374380041.3033779</v>
       </c>
       <c r="J44" t="n">
-        <v>373407338.1375519</v>
+        <v>371833812.368194</v>
       </c>
       <c r="K44" t="n">
         <v>253739948.2156419</v>
@@ -2607,19 +2607,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.4755</t>
+          <t>1.4671</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.4662</t>
+          <t>1.4577</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>260486157.8199562</v>
+        <v>259005064.8042546</v>
       </c>
       <c r="J45" t="n">
-        <v>258836312.0795401</v>
+        <v>257338815.4602034</v>
       </c>
       <c r="K45" t="n">
         <v>176539976.1502328</v>
@@ -2656,19 +2656,19 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>6.5650</t>
+          <t>-4.3980</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>6.5410</t>
+          <t>-4.3984</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>9270478.839206755</v>
+        <v>-6210431.844153409</v>
       </c>
       <c r="J46" t="n">
-        <v>9236558.083850842</v>
+        <v>-6210995.834038858</v>
       </c>
       <c r="K46" t="n">
         <v>1412109.241021628</v>
@@ -2705,19 +2705,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.1809</t>
+          <t>1.1701</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1.1801</t>
+          <t>1.1687</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>225273.1491033457</v>
+        <v>223226.2448044233</v>
       </c>
       <c r="J47" t="n">
-        <v>225136.4646070454</v>
+        <v>222949.3797379764</v>
       </c>
       <c r="K47" t="n">
         <v>190770</v>
@@ -2754,19 +2754,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.2662</t>
+          <t>1.2524</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.2613</t>
+          <t>1.2473</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>402507239.5826183</v>
+        <v>398108148.4359002</v>
       </c>
       <c r="J48" t="n">
-        <v>400918930.5084249</v>
+        <v>396498286.2604702</v>
       </c>
       <c r="K48" t="n">
         <v>317874257</v>
@@ -2803,19 +2803,19 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1.1800</t>
+          <t>1.1741</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.1750</t>
+          <t>1.1689</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>369798964.0205739</v>
+        <v>367967884.3251898</v>
       </c>
       <c r="J49" t="n">
-        <v>368243211.317957</v>
+        <v>366331740.4568706</v>
       </c>
       <c r="K49" t="n">
         <v>313397818</v>
@@ -2852,19 +2852,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.1891</t>
+          <t>1.1744</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.1850</t>
+          <t>1.1702</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>704309185.3347816</v>
+        <v>695602327.4550757</v>
       </c>
       <c r="J50" t="n">
-        <v>701855556.5093682</v>
+        <v>693081143.8931308</v>
       </c>
       <c r="K50" t="n">
         <v>592281545</v>
@@ -2901,19 +2901,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.4729</t>
+          <t>1.4680</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.4639</t>
+          <t>1.4580</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>503897676.1979804</v>
+        <v>502241741.2736986</v>
       </c>
       <c r="J51" t="n">
-        <v>500821813.4947523</v>
+        <v>498817769.7614328</v>
       </c>
       <c r="K51" t="n">
         <v>342123159.88</v>
@@ -2950,19 +2950,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.3703</t>
+          <t>1.3540</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.3634</t>
+          <t>1.3468</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1635181911.371456</v>
+        <v>1615769572.657646</v>
       </c>
       <c r="J52" t="n">
-        <v>1626914486.733989</v>
+        <v>1607137541.44444</v>
       </c>
       <c r="K52" t="n">
         <v>1193317483.67</v>
@@ -3040,19 +3040,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.1747</t>
+          <t>0.9712</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.1680</t>
+          <t>0.9708</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>165127199.1233789</v>
+        <v>136530943.2487958</v>
       </c>
       <c r="J54" t="n">
-        <v>164192589.0530001</v>
+        <v>136466514.8058652</v>
       </c>
       <c r="K54" t="n">
         <v>140573820</v>
@@ -3089,19 +3089,19 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.1721</t>
+          <t>1.1546</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.1708</t>
+          <t>1.1534</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>264655585.7799301</v>
+        <v>260704823.3687191</v>
       </c>
       <c r="J55" t="n">
-        <v>264352909.1400049</v>
+        <v>260415973.6558648</v>
       </c>
       <c r="K55" t="n">
         <v>225787422.2</v>
